--- a/YDocuments/策划需求/蚂蚁1.0/初步原型图.xlsx
+++ b/YDocuments/策划需求/蚂蚁1.0/初步原型图.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\GitHub\YaoLing\YL_MaYi\YDocuments\策划需求\蚂蚁1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD4E0DC-D923-41A0-8796-321344432A84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1051ED81-0648-46F9-B348-C829AD9CCD01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
     <sheet name="1-1" sheetId="2" r:id="rId2"/>
     <sheet name="1-2" sheetId="3" r:id="rId3"/>
     <sheet name="2-1" sheetId="4" r:id="rId4"/>
+    <sheet name="2-2" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="9">
   <si>
     <t>蚂蚁项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +60,10 @@
   </si>
   <si>
     <t>产品原型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -126,7 +130,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,6 +161,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -171,7 +181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -182,6 +192,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -7311,6 +7322,3017 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="矩形 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE585AF3-C5A4-47D7-AAAF-D8657E734C6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1554480" y="2171007"/>
+          <a:ext cx="2674620" cy="4705697"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="矩形 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88967B29-0356-4D68-929B-16853AD3C2C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1554480" y="6321136"/>
+          <a:ext cx="2674620" cy="547948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="329184" cy="329184"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="100" name="图形 99" descr="强盗">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAF273E0-644B-4842-BB3B-58608E9F130E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2446020" y="6366856"/>
+          <a:ext cx="329184" cy="329184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="356616" cy="356616"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="101" name="图形 100" descr="王冠">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2626219-FCC8-473F-ABC8-709E9683A56F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1798320" y="6321136"/>
+          <a:ext cx="356616" cy="356616"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="356616" cy="356616"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="图形 101" descr="聊天气泡">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AD771E1-5ED6-4263-82C1-505C4CF40B50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3101340" y="6359236"/>
+          <a:ext cx="356616" cy="356616"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>73800</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>132360</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="356616" cy="356616"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="103" name="图形 102" descr="办公室职员">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAA99568-0B51-4DA1-B9F4-C2D3FAA75624}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3731400" y="6339196"/>
+          <a:ext cx="356616" cy="356616"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="矩形 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{392BCF7C-7AEB-4F35-A84C-5F50315A5A28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1737360" y="6673735"/>
+          <a:ext cx="487680" cy="149629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="黑体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:ea typeface="黑体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+            </a:rPr>
+            <a:t>主页</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="矩形 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{109EB40E-CD60-4D0C-9921-D24EBC1DE71C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2346960" y="6666115"/>
+          <a:ext cx="487680" cy="149629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="黑体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:ea typeface="黑体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+            </a:rPr>
+            <a:t>订单</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="矩形 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8E3DC13-CA09-41BC-82E7-59E0DBEE278A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3032760" y="6666115"/>
+          <a:ext cx="487680" cy="149629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="黑体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:ea typeface="黑体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+            </a:rPr>
+            <a:t>消息</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="矩形 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8533D575-903A-41A1-90B6-27CC9484374F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3680460" y="6666115"/>
+          <a:ext cx="487680" cy="149629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="黑体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:ea typeface="黑体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+            </a:rPr>
+            <a:t>我的</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="矩形 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A12920E1-B1AC-48E2-8D26-8A8AF11ED710}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1554480" y="2171007"/>
+          <a:ext cx="2674620" cy="586048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="矩形 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D3C6FC7-DF78-4A01-A71C-7B374FF4FD16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2133600" y="2313016"/>
+          <a:ext cx="1463040" cy="375459"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="方正粗黑宋简体" panose="02000000000000000000" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="方正粗黑宋简体" panose="02000000000000000000" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>帮扔垃圾</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形: 圆角 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6F874DE-48D5-4AC4-A5A8-CBE22084153A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6637020" y="716280"/>
+          <a:ext cx="2179320" cy="624840"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>用户进入</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直接连接符 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19F057D3-D217-45B1-BABF-36E5122171F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7719060" y="1341120"/>
+          <a:ext cx="7620" cy="2438400"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矩形: 圆角 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CACA4D87-F373-415E-B0C1-564EFCC5324D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6690360" y="3779520"/>
+          <a:ext cx="2057400" cy="563880"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>判断用户</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="矩形: 圆角 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E376F2B-1906-45E3-8D2E-2F061056C44F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1691640" y="6164580"/>
+          <a:ext cx="2057400" cy="563880"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>服务者</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="矩形: 圆角 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4931F43B-2881-4E74-A06B-35C9EFC98FE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11833860" y="4419600"/>
+          <a:ext cx="2057400" cy="563880"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>被服务者</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直接连接符 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9253D27F-CE1D-4D9C-90E1-F62187B0599B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="15" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8747760" y="4061460"/>
+          <a:ext cx="3086100" cy="640080"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="矩形: 圆角 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFDABA22-E835-481E-ABD9-F721790E4153}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8382000" y="5615940"/>
+          <a:ext cx="1013460" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>主页</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>354330</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直接连接符 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E2D7F1E-44E9-4D33-86E8-896540946298}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="2"/>
+          <a:endCxn id="26" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8888730" y="4983480"/>
+          <a:ext cx="3973830" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="矩形: 圆角 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21AEA5CE-A96B-48E7-9F9D-34A4587A3D0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12451080" y="5859780"/>
+          <a:ext cx="1013460" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>订单</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="矩形: 圆角 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7847DF7B-37DD-493A-95BC-339138A374F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7505700" y="6941820"/>
+          <a:ext cx="693420" cy="777240"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>左上角获取位置信息</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="矩形: 圆角 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F911456E-7356-4F44-97A2-C4EA9A5ABF44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10279380" y="5615940"/>
+          <a:ext cx="1013460" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>我的</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="矩形: 圆角 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E04B65B8-BA02-4B31-996B-755D1AD03D4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10020300" y="6949440"/>
+          <a:ext cx="731520" cy="708660"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>申请成为服务者</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="矩形: 圆角 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47136FF2-0AE3-4E34-AC95-AD12CB4B13FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14889480" y="5913120"/>
+          <a:ext cx="1013460" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>留言，聊天</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="矩形: 圆角 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ED6A123-149F-4D3A-9A59-EAF220D55F31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12237720" y="7018020"/>
+          <a:ext cx="670560" cy="678180"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>当前订单</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="矩形: 圆角 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A570A160-DEDC-4D0F-BA9A-366F4B11216E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13075920" y="7002780"/>
+          <a:ext cx="800100" cy="624840"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>历史订单</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="矩形: 圆角 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69E88252-C2E4-4414-8A1B-46A3B9C3FBA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13114020" y="8077200"/>
+          <a:ext cx="792480" cy="640080"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>是否可以评价</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>64770</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直接连接符 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{879E0A4B-7B86-4A7A-9A22-18FC41A7C3D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="37" idx="2"/>
+          <a:endCxn id="38" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13475970" y="7627620"/>
+          <a:ext cx="34290" cy="449580"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="矩形: 圆角 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1417A7DA-BF02-40AE-AF5C-51FA1171E5D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12092940" y="8069580"/>
+          <a:ext cx="800100" cy="899160"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>点击完成后可以评价</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="矩形: 圆角 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5942FF99-DF82-4FF9-825B-9D64258FD7C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16992600" y="5783580"/>
+          <a:ext cx="1013460" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>积分商城</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="矩形: 圆角 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DF70667-0677-4D40-889A-9016451ECE57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4716780" y="4389120"/>
+          <a:ext cx="739140" cy="1242060"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>申请成功，跳转到服务者小程序界面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="矩形: 圆角 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1029767-0466-43BA-8C0B-BBDE56100278}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11056620" y="6979920"/>
+          <a:ext cx="800100" cy="594360"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>地址管理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="矩形: 圆角 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1F3E3BC-5993-449D-955D-2F9886B8216A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8740140" y="6873240"/>
+          <a:ext cx="678180" cy="845820"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>垃圾分类知识</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>537210</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>354330</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直接连接符 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0EF9BF7-4149-49A9-A082-8B6363FBD790}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="2"/>
+          <a:endCxn id="32" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7852410" y="6187440"/>
+          <a:ext cx="1036320" cy="754380"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>354330</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>544830</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直接连接符 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{718C8FF6-93F5-4B33-B5C1-56C5590970B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="2"/>
+          <a:endCxn id="45" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8888730" y="6187440"/>
+          <a:ext cx="190500" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>422910</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直接连接符 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B19F82D8-C42E-4E6F-BDED-68D0F5605E7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="2"/>
+          <a:endCxn id="33" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10786110" y="4983480"/>
+          <a:ext cx="2076450" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>156210</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直接连接符 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7196EBF3-C7BE-4EB9-9AD5-C79195B444A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="2"/>
+          <a:endCxn id="31" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12862560" y="4983480"/>
+          <a:ext cx="95250" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>156210</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直接连接符 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08DBDD37-B243-4C99-9636-F99F78B9E87B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="2"/>
+          <a:endCxn id="35" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12862560" y="4983480"/>
+          <a:ext cx="2533650" cy="929640"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>430530</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="直接连接符 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{905E8A53-6696-4F63-BE81-76CD5C8C2711}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="2"/>
+          <a:endCxn id="42" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12862560" y="4983480"/>
+          <a:ext cx="4636770" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>422910</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直接连接符 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95990311-7DAC-4846-AEF6-F46FFA297260}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="2"/>
+          <a:endCxn id="34" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10386060" y="6187440"/>
+          <a:ext cx="400050" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>422910</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>483870</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="直接连接符 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{542ED1CB-B87F-46D1-96DF-C3F3564F79EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="2"/>
+          <a:endCxn id="44" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10786110" y="6187440"/>
+          <a:ext cx="670560" cy="792480"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="直接连接符 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{095BCD12-572C-45F6-ADDB-6F93D9D39013}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="34" idx="2"/>
+          <a:endCxn id="43" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5086350" y="4389120"/>
+          <a:ext cx="5299710" cy="3268980"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>156210</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="直接连接符 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0230C607-E8BF-4A93-84A0-6D734B66735B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="31" idx="2"/>
+          <a:endCxn id="36" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12573000" y="6431280"/>
+          <a:ext cx="384810" cy="586740"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>156210</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>64770</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="直接连接符 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FC3A837-DC3B-4430-961D-DFD3C03A1C5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="31" idx="2"/>
+          <a:endCxn id="37" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12957810" y="6431280"/>
+          <a:ext cx="518160" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>300990</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="直接连接符 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1CD2311-2BB8-4686-9DF6-DB4587C1EED3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="2"/>
+          <a:endCxn id="41" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12492990" y="7696200"/>
+          <a:ext cx="80010" cy="373380"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="连接符: 肘形 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFFA9275-7673-4E29-9B93-659BF43493E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="1"/>
+          <a:endCxn id="14" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="3749040" y="5010150"/>
+          <a:ext cx="967740" cy="1436370"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="矩形: 圆角 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{153C32C7-A609-464A-A381-15246FB98FA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13167360" y="9265920"/>
+          <a:ext cx="792480" cy="640080"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>超过</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>n</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>天不可以评价</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="直接连接符 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C65DF17B-CEB0-44EB-BECD-12D9CD139371}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="2"/>
+          <a:endCxn id="113" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13510260" y="8717280"/>
+          <a:ext cx="53340" cy="548640"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="矩形: 圆角 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B43F16DB-1ECD-4D97-8009-5318B30E9461}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6644640" y="2179320"/>
+          <a:ext cx="2179320" cy="624840"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>获取用户信息</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7606,7 +10628,7 @@
   <dimension ref="A1:AC8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7648,7 +10670,9 @@
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
+      <c r="P5" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
@@ -7670,6 +10694,7 @@
     <hyperlink ref="G5" location="'1-1'!A1" display="产品简介" xr:uid="{CB96143D-7972-4066-A221-645EA920FDFE}"/>
     <hyperlink ref="J5" location="'1-2'!A1" display="产品说明" xr:uid="{A5F6A3D4-2A5C-4C58-B8C9-7F8BBC1DD9D4}"/>
     <hyperlink ref="M5" location="'2-1'!A1" display="产品原型" xr:uid="{D1ADD56E-7F83-4A34-A5BA-759A066E6595}"/>
+    <hyperlink ref="P5" location="'2-2'!A1" display="流程图" xr:uid="{CEA06BB4-F8CD-411B-9AC7-00837D5FB3E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7831,7 +10856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{943EB2F3-39FB-4662-A68E-4A3A1A04CEAC}">
   <dimension ref="A1:AC8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7898,4 +10923,23 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26F0882-5058-478B-84CC-B4D04D235278}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="10"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>